--- a/task_2.xlsx
+++ b/task_2.xlsx
@@ -7,8 +7,7 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="task_1" sheetId="1" r:id="rId1"/>
-    <sheet name="task_2" sheetId="2" r:id="rId2"/>
+    <sheet name="task_2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -143,265 +142,6 @@
         <v>44562.40638888889</v>
       </c>
       <c r="G2" s="2">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Justin</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forman</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>25</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Java Developer</t>
-        </is>
-      </c>
-      <c r="F3" s="1">
-        <v>44562.49334490741</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.38541666666666674</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Set</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carey</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>35</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Project Manager</t>
-        </is>
-      </c>
-      <c r="F4" s="1">
-        <v>44562.4171875</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.38541666666666674</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carey</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>40</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enterprise Architect</t>
-        </is>
-      </c>
-      <c r="F5" s="1">
-        <v>44562.380277777775</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.38541666666666674</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gareth</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chapman</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>19</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Python Developer</t>
-        </is>
-      </c>
-      <c r="F6" s="1">
-        <v>44562.49594907407</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">James</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>27</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">IOS Developer</t>
-        </is>
-      </c>
-      <c r="F7" s="1">
-        <v>44562.414351851854</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.38541666666666674</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bob</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">James</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>25</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Python Developer</t>
-        </is>
-      </c>
-      <c r="F8" s="1">
-        <v>44562.411631944444</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.38541666666666674</v>
-      </c>
-    </row>
-  </sheetData>
-    None
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" hidden="0" width="9.2" style="1"/>
-    <col min="7" max="7" hidden="0" width="9.2" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">surname</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">age</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">job</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">datetime</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TimeToEnter</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alex</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Smur</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>21</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Python Developer</t>
-        </is>
-      </c>
-      <c r="F2" s="1">
-        <v>44562.40638888889</v>
-      </c>
-      <c r="G2" s="2">
         <v>0.39583333333333326</v>
       </c>
     </row>
